--- a/data/raw_data_lena.xlsx
+++ b/data/raw_data_lena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\github\2399-lena-analyses\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\github\2310-lena-analyses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA9FC86-5D71-42B6-B5A1-F84B65ED1A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280E522-1816-4DC8-8356-173252F19688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="7" xr2:uid="{73F0FA91-52C5-6E42-A3FD-22FAFBAD3607}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{73F0FA91-52C5-6E42-A3FD-22FAFBAD3607}"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="200">
   <si>
     <t>Groupe</t>
   </si>
@@ -651,19 +651,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t>FR- Catég</t>
-  </si>
-  <si>
-    <t>FR- Non categ</t>
-  </si>
-  <si>
     <t>FR-Categ</t>
-  </si>
-  <si>
-    <t>FR-Non Categ</t>
-  </si>
-  <si>
-    <t>FR- Categ</t>
   </si>
   <si>
     <t xml:space="preserve">FR-Non categ </t>
@@ -4945,10 +4933,10 @@
         <v>157</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>149</v>
@@ -16395,8 +16383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89506CEF-9735-544A-B395-7555870A62A1}">
   <dimension ref="A1:AM220"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16476,7 +16464,7 @@
         <v>157</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="R1" s="28" t="s">
         <v>199</v>
@@ -28364,8 +28352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0093222E-A55C-9F49-A9D4-548723C8E17F}">
   <dimension ref="A1:AM144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28436,10 +28424,10 @@
         <v>157</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>149</v>
@@ -37984,8 +37972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228CFEE8-62CD-FF4A-A36A-6D808FB8F399}">
   <dimension ref="A1:AR144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -38054,10 +38042,10 @@
         <v>157</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S1" s="28" t="s">
         <v>149</v>
@@ -47667,8 +47655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F5F141A-48C7-274B-88A0-3106D4997541}">
   <dimension ref="A1:AM142"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="G1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -57220,8 +57208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98171D75-1E05-3249-A799-2496AFB97F3A}">
   <dimension ref="A1:AM142"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="H1" zoomScale="92" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -66764,8 +66752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC83D00-0826-EA4C-9179-05395078AF42}">
   <dimension ref="A1:V142"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -76011,8 +75999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF5ED3D-7B4D-4549-9F01-21D599653378}">
   <dimension ref="A1:V142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -85365,8 +85353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEC6BBB-2BED-794A-99CF-54CC96E3AA53}">
   <dimension ref="A1:V142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
